--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -8,23 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/go0s/Downloads/copySpeedTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95F6A83-4A39-4A47-B830-6D833BD8544D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B186601-45BB-2747-ABBB-654ECF5095CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{4C5A3B07-5BEF-824C-974E-D2CE210DC4D1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33040" windowHeight="20540" xr2:uid="{4C5A3B07-5BEF-824C-974E-D2CE210DC4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$3</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Mac SSD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,11 +102,52 @@
     <t>200G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AES-256-CBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：OpenSSL，海康威视SSD，单位秒（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>AES-128-CBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSSL RC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSSL AES-128-CBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -155,7 +187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,6 +196,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2112,6 +2153,1156 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>不同加密算法下200G文件拷贝情况对比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" b="1">
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>（单位：秒）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$44:$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AES-256-CBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$45:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2685.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2657.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0348-7249-9997-BE72F59C7EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="552070752"/>
+        <c:axId val="552072480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="552070752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552072480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552072480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552070752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>不同加密算法下200G文件拷贝情况对比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>（单位：秒）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$68:$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>编程加密拷贝（C）</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AES-128-CBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$72:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00_ ">
+                  <c:v>2779.7933333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2746.3199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>2832.4733333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8D6-E84F-ABF0-01837BBF1967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="135669520"/>
+        <c:axId val="135756704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135669520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135756704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135756704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135669520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>大文件拷贝情况对比（单位：秒）</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$68:$N$68</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>常规拷贝</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>编程拷贝（C）</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>编程加密拷贝（C）</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenSSL RC4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenSSL AES-128-CBC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$69:$N$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2530.5700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2718.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2779.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2746.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2832.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B244-604E-B159-581C9E795E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="369904384"/>
+        <c:axId val="369906064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="369904384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369906064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="369906064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369904384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2232,6 +3423,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
@@ -3632,6 +4943,1521 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3741,6 +6567,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>765095</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>37789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604024</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7249FC95-C2E1-F94B-A555-21B40E7E2149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>741865</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>68765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>278780</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>30975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3334C9-7D8A-E742-B423-73BF0A6D7483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>362416</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>122972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>356220</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>154877</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FA75BE-740F-D04F-AC0A-037995C6B990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4046,20 +6980,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB67C2F-3FCC-F244-9859-74B77F4A9604}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4103,12 +7042,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
@@ -4144,11 +7083,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="25" spans="9:12">
       <c r="I25" s="1"/>
@@ -4219,18 +7158,203 @@
       </c>
     </row>
     <row r="30" spans="9:12">
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2685.18</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2657.75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2717.73</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2631.18</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2646.1</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2530.5700000000002</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2718.21</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2779.79</v>
+      </c>
+      <c r="M69" s="1">
+        <v>2746.32</v>
+      </c>
+      <c r="N69" s="1">
+        <v>2832.47</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2759.84</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2816.11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2840.21</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2861.81</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2791.67</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3011.11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="3">
+        <f>AVERAGE(C69:C71)</f>
+        <v>2779.7933333333331</v>
+      </c>
+      <c r="D72" s="1">
+        <f>AVERAGE(D69:D71)</f>
+        <v>2746.3199999999997</v>
+      </c>
+      <c r="E72" s="3">
+        <f>AVERAGE(E69:E71)</f>
+        <v>2832.4733333333334</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="86" spans="9:12">
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="116" spans="9:14">
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="9:14">
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="9:14">
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="9:14">
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="I30:L30"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B73:D73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
